--- a/RCS Single Stream Test (03-12-2015)/Wet Runs/wet run 60 ms with 50 percent duty cycle at 125 psi valve closed2015-03-12 15-01.xlsx
+++ b/RCS Single Stream Test (03-12-2015)/Wet Runs/wet run 60 ms with 50 percent duty cycle at 125 psi valve closed2015-03-12 15-01.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="force" sheetId="2" r:id="rId1"/>
-    <sheet name="wet run 60 ms with 50 percent d" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
+    <sheet name="wet run 60 ms with 50 percent d" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -593,9 +594,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.095963407904088E-2"/>
+          <c:x val="4.0959634079040887E-2"/>
           <c:y val="7.6788813256866081E-2"/>
-          <c:w val="0.83040382983006067"/>
+          <c:w val="0.83040382983006056"/>
           <c:h val="0.89275480790530104"/>
         </c:manualLayout>
       </c:layout>
@@ -6628,23 +6629,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="179594368"/>
-        <c:axId val="187453440"/>
+        <c:axId val="179698304"/>
+        <c:axId val="179708288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179594368"/>
+        <c:axId val="179698304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187453440"/>
+        <c:crossAx val="179708288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187453440"/>
+        <c:axId val="179708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6652,13 +6653,9136 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179594368"/>
+        <c:crossAx val="179698304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$A$2:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0010000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0010000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0009999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0010000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0000999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2002000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6001999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8002000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9002000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0001999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2002000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3002999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6002999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7002999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9003000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0002999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1002999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2002999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3002999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4004E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.5004E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6004000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7004000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8004000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9003999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0003999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1003999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2005000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3005000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4004000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5005000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6004999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.7004999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8004999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9005E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0005000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.1005000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.2005000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.3005999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4005999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.5005999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6006E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7006000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8006000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.9006000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0005999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.1005999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.2005999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.3006000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.4006999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5006999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.6006999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.7006999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.8006999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.9006999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.0007E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.1007000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2007000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.3008000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.4008000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5008000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.6008000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.7007999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.8007999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.9007999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.0007999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.1007999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.2007999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.3007999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.4009E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.5009000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6009000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.7009000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.8009000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.9009000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.0009000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.1009000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.2009999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.3008999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.4008999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.5009999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.6009999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.7009999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.801E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9010000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.10101</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.10201</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.10301100000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.10401100000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.10501099999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.10601099999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.107011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.108011</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.109011</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.110011</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.111012</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.112011</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.113011</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.114012</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.115012</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.116012</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.117012</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.11801200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.11901200000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.12001199999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.12101199999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.122013</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.123013</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.124012</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.12501300000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.12601299999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.12701299999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.12801299999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.12901299999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.13001299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.13101299999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.13201299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.13301399999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.13401399999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.135014</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.136014</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.137014</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.138014</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.139014</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.140014</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.141014</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.142015</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.143014</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.144015</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.14501500000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.14601500000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.14701500000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.14801500000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.14901500000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.15001500000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.15101500000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.15201500000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.15301600000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.15401599999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.15501499999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.15601599999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.15701599999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.15801599999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.15901599999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.16001599999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.16101599999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.16201599999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.16301599999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.164017</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.165017</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.166017</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.167017</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.168017</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.169017</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.170017</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.171017</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.172018</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.17301800000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.17401700000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.17501800000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.17601800000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.17701800000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.17801800000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.17901800000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.18001800000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.18101800000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.18201800000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.18301899999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.18401899999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.18501899999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.18601899999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.18701899999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.18801899999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.18901899999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.19001899999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.19102</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.192019</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.193019</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.19402</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.19502</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.19602</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.19702</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.19802</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.19902</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.20002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.20102</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.20202000000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.20302100000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.20402100000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.20502100000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.20602100000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.20702100000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.20802100000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.20902100000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.21002100000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.21102099999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.21202099999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.21302099999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.21402199999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.21502199999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.21602199999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.21702199999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.21802199999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.21902199999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.220022</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.221022</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.222023</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.223022</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.224022</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.225023</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.226023</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.227023</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.228023</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.229023</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.23002300000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.23102300000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.23202300000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.23302400000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.23402400000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.23502300000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.23602400000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.23702400000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.23802400000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.23902399999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.24002399999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.24102399999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.24202399999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.24302399999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.24402499999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.24502499999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.24602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.24702499999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.248025</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.249025</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.250025</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.251025</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.25202599999999997</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.25302599999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.254025</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.25502599999999997</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.25602599999999998</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.25702599999999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.25802599999999998</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.25902599999999998</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.26002599999999998</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.26102599999999998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.26202599999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.26302700000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.26402700000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.26502700000000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.26602700000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.26702700000000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.26802700000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.26902700000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.27002700000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.27102700000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.27202700000000002</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.27302700000000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.27402799999999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.27502799999999999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.276028</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.277028</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.278028</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.279028</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.280028</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.281028</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.282028</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.28302899999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.28402899999999998</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.28502899999999998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.28602899999999998</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.28702899999999998</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.28802899999999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.28902899999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.29002899999999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.29102899999999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.29202899999999998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.29302899999999998</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.29403000000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.29503000000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.29603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.29703000000000002</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.29803000000000002</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.29903000000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.30003000000000002</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.30103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.30203099999999999</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.30303000000000002</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.30403000000000002</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.305031</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.306031</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.307031</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.308031</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.309031</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.310031</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.311031</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.312031</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.31303199999999998</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.31403199999999998</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.31503199999999998</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.31603199999999998</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.31703199999999998</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.31803199999999998</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.31903199999999998</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.32003199999999998</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.32103300000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.32203199999999998</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.32303199999999999</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.32403300000000002</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.32503300000000002</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.32603300000000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.32703300000000002</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.32803300000000002</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.32903300000000002</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.33003300000000002</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.33103300000000002</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.332034</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.333034</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.33403300000000002</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.335034</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.336034</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.337034</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.338034</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.339034</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.340034</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.341034</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.342034</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.34303400000000001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.34403499999999998</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.34503499999999998</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.34603499999999998</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.34703499999999998</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.34803499999999998</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.34903499999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.35003499999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.35103499999999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.35203600000000002</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.35303499999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.35403499999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.35503600000000002</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.35603600000000002</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.35703600000000002</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.35803600000000002</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.35903600000000002</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.36003600000000002</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.36103600000000002</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.36203600000000002</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.363037</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.364037</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.36503600000000003</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.366037</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.367037</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.368037</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.369037</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.370037</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.37103700000000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.37203700000000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.37303700000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.37403799999999998</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.37503799999999998</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.37603799999999998</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.37703799999999998</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.37803799999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.37903799999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.38003799999999999</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.38103799999999999</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.38203900000000002</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.38303900000000002</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.38403799999999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.38503900000000002</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.38603900000000002</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.38703900000000002</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.38803900000000002</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.38903900000000002</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.39003900000000002</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.39103900000000003</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.39203900000000003</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.39304</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.39404</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.39504</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.39604</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.39704</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.39804</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.39904000000000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.40004000000000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.40104000000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.40204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.40304000000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.40404099999999998</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.40504099999999998</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.40604099999999999</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.40704099999999999</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.40804099999999999</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.40904099999999999</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.41004099999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.41104099999999999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.41204099999999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.41304200000000002</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.41404200000000002</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.41504200000000002</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.41604200000000002</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.41704200000000002</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.41804200000000002</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.41904200000000003</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.42004200000000003</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.42104200000000003</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.42204199999999997</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.42304199999999997</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.424043</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.425043</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.42604300000000001</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.42704300000000001</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.42804300000000001</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.42904300000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.43004300000000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.43104300000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.43204399999999998</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.43304300000000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.43404300000000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.43504399999999999</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.43604399999999999</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.43704399999999999</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.43804399999999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.43904399999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.44004399999999999</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.44104399999999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.44204399999999999</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.44304500000000002</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.44404500000000002</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.44504500000000002</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.44604500000000002</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.44704500000000003</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0.44804500000000003</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.44904500000000003</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.45004499999999997</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>0.451046</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.45204499999999997</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.45304499999999998</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0.45404600000000001</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.45504600000000001</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.45604600000000001</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0.45704600000000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.45804600000000001</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0.45904600000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.46004600000000001</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.46104600000000001</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.46204699999999999</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.46304699999999999</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.46404600000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.46504699999999999</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.46604699999999999</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.46704699999999999</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.46804699999999999</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.46904699999999999</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.47004699999999999</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.47104699999999999</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.47204699999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.47304800000000002</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.47404800000000002</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.47504800000000003</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.47604800000000003</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.47704800000000003</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.47804799999999997</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.47904799999999997</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.48004799999999997</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.48104799999999998</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.48204900000000001</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.48304799999999998</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.48404799999999998</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.48504900000000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.48604900000000001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.48704900000000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.48804900000000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.48904900000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.49004900000000001</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.49104900000000001</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.49204900000000001</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.49304999999999999</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.49404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.49504900000000002</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.49604999999999999</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.49704999999999999</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.49804999999999999</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.49904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.50004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.50105</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.50205</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.50305</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.50405100000000003</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.50505100000000003</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.50605100000000003</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.50705100000000003</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.50805100000000003</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.50905100000000003</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.51005100000000003</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.51105100000000003</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.51205199999999995</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.51305199999999995</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0.51405100000000004</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.51505199999999995</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.51605199999999996</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0.51705199999999996</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0.51805199999999996</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.51905199999999996</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0.52005199999999996</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0.52105199999999996</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0.52205199999999996</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.52305299999999999</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0.52405299999999999</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0.52505299999999999</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0.52605299999999999</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.52705299999999999</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.52805299999999999</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.529053</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.530053</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.531053</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.532053</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.533053</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.53405400000000003</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.53505400000000003</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.53605400000000003</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.53705400000000003</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.53805400000000003</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.53905400000000003</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.54005400000000003</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.54105400000000003</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.54205400000000004</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.54305499999999995</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.54405499999999996</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.54505499999999996</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0.54605499999999996</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.54705499999999996</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.54805499999999996</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>0.54905499999999996</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0.55005499999999996</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0.55105499999999996</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.55205499999999996</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0.55305499999999996</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0.55405599999999999</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0.55505599999999999</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.55605599999999999</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.557056</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.558056</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.559056</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>0.560056</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0.561056</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>0.56205700000000003</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0.563056</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0.564056</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.56505700000000003</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.56605700000000003</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.56705700000000003</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.56805700000000003</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.56905700000000004</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.57005700000000004</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.57105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.57205700000000004</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0.57305799999999996</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0.57405799999999996</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.57505799999999996</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0.57605799999999996</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.57705799999999996</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.57805799999999996</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.57905799999999996</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.58005799999999996</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.58105899999999999</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0.58205799999999996</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0.58305799999999997</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>0.58405899999999999</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0.585059</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>0.586059</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>0.587059</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>0.588059</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0.589059</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.590059</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.591059</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.59206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0.59306000000000003</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.594059</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0.59506000000000003</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>0.59606000000000003</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>0.59706000000000004</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>0.59806000000000004</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0.59906000000000004</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0.60006000000000004</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.60106000000000004</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.60206000000000004</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.60306099999999996</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.60406099999999996</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.60506099999999996</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.60606099999999996</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.60706099999999996</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.60806099999999996</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.60906099999999996</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.61006099999999996</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.61106099999999997</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.61206199999999999</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.61306099999999997</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.614062</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.615062</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.616062</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.617062</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.618062</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.619062</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.620062</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.621062</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.622062</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.62306300000000003</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.62406300000000003</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.62506200000000001</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0.62606300000000004</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0.62706300000000004</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0.62806300000000004</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0.62906300000000004</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.63006300000000004</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.63106300000000004</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.63206300000000004</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.63306300000000004</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.63406399999999996</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.63506399999999996</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.63606399999999996</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.63706399999999996</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.63806399999999996</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.63906399999999997</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.64006399999999997</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.64106399999999997</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0.642065</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.64306399999999997</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.64406399999999997</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.645065</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0.646065</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0.647065</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.648065</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.649065</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0.650065</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.651065</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0.65206500000000001</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>0.65306600000000004</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>0.65406600000000004</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>0.65506600000000004</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>0.65606600000000004</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>0.65706600000000004</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0.65806600000000004</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0.65906600000000004</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0.66006600000000004</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>0.66106699999999996</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>0.66206600000000004</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0.66306600000000004</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0.66406699999999996</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0.66506699999999996</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>0.66606699999999996</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0.66706699999999997</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>0.66806699999999997</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0.66906699999999997</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0.67006699999999997</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.67106699999999997</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.67206699999999997</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.673068</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.67406699999999997</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.675068</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.676068</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>0.677068</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0.678068</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0.679068</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0.68006800000000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0.68106800000000001</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0.68206800000000001</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0.68306800000000001</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0.68406900000000004</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.68506900000000004</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.68606900000000004</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0.68706900000000004</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0.68806900000000004</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0.68906900000000004</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0.69006900000000004</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0.69106900000000004</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0.69206999999999996</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0.69306900000000005</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0.69406900000000005</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0.69506999999999997</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>0.69606999999999997</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0.69706999999999997</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0.69806999999999997</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>0.69906999999999997</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0.70006999999999997</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0.70106999999999997</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0.70206999999999997</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>0.703071</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>0.704071</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0.70506999999999997</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0.706071</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0.70707100000000001</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.70807100000000001</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0.70907100000000001</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0.71007100000000001</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.71107100000000001</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.71207100000000001</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.71307100000000001</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0.71407200000000004</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.71507200000000004</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.71607200000000004</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.71707200000000004</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.71807200000000004</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0.71907200000000004</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.72007200000000005</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.72107200000000005</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.72207299999999996</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.72307299999999997</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.72407200000000005</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.72507299999999997</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0.72607299999999997</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>0.72707299999999997</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>0.72807299999999997</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0.72907299999999997</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0.73007299999999997</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>0.73107299999999997</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0.73207299999999997</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>0.733074</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>0.734074</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>0.73507400000000001</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0.73607400000000001</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0.73707400000000001</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0.73807400000000001</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0.73907400000000001</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.74007400000000001</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0.74107400000000001</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0.74207400000000001</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.74307400000000001</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0.74407500000000004</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.74507500000000004</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.74607500000000004</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0.74707500000000004</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0.74807500000000005</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.74907500000000005</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0.75007500000000005</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.75107500000000005</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.75207500000000005</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.75307599999999997</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.75407599999999997</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.75507599999999997</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0.75607599999999997</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0.75707599999999997</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0.75807599999999997</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0.75907599999999997</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>0.76007599999999997</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0.76107599999999997</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0.76207599999999998</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>0.76307599999999998</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0.76407700000000001</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0.76507700000000001</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>0.76607700000000001</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0.76707700000000001</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0.76807700000000001</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0.76907700000000001</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0.77007700000000001</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0.77107700000000001</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.77207800000000004</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0.77307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.77407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.77507800000000004</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.77607800000000005</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.77707800000000005</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.77807800000000005</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0.77907800000000005</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0.78007800000000005</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0.78107800000000005</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>0.78207800000000005</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>0.78307899999999997</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0.78407899999999997</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0.78507899999999997</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.78607899999999997</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.78707899999999997</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0.78807899999999997</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.78907899999999997</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.79007899999999998</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0.79108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0.79207899999999998</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>0.79307899999999998</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>0.79408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>0.79508000000000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>0.79608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>0.79708000000000001</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>0.79808000000000001</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>0.79908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>0.80008000000000001</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>0.80108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0.80208100000000004</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0.80308100000000004</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>0.80408000000000002</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>0.80508100000000005</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>0.80608100000000005</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>0.80708100000000005</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>0.80808100000000005</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>0.80908100000000005</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0.81008100000000005</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.81108100000000005</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0.81208100000000005</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.81308100000000005</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.81408199999999997</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.81508199999999997</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0.81608199999999997</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>0.81708199999999997</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0.81808199999999998</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0.81908199999999998</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0.82008199999999998</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.82108199999999998</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.82208300000000001</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.82308199999999998</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0.82408199999999998</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.82508300000000001</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0.82608300000000001</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0.82708300000000001</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0.82808300000000001</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0.82908300000000001</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0.83008300000000002</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0.83108300000000002</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.83208300000000002</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0.83308400000000005</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.83408400000000005</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0.83508300000000002</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.83608400000000005</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.83708400000000005</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.83808400000000005</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.83908400000000005</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0.84008400000000005</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0.84108400000000005</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.84208400000000005</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0.84308399999999994</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.84408499999999997</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0.84508499999999998</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.84608499999999998</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.84708499999999998</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0.84808499999999998</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.84908499999999998</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0.85008499999999998</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0.85108499999999998</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>0.85208600000000001</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0.85308600000000001</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.85408499999999998</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0.85508600000000001</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0.85608600000000001</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0.85708600000000001</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.85808600000000002</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0.85908600000000002</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.86008600000000002</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0.86108600000000002</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>0.86208600000000002</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>0.86308700000000005</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>0.86408700000000005</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>0.86508700000000005</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0.86608700000000005</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0.86708700000000005</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>0.86808700000000005</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0.86908700000000005</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>0.87008700000000005</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>0.87108699999999994</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0.87208699999999995</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0.87308699999999995</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>0.87408799999999998</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>0.87508799999999998</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>0.87608799999999998</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0.87708799999999998</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>0.87808799999999998</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>0.87908799999999998</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.88008799999999998</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.88108799999999998</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.88208799999999998</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0.88308900000000001</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.88408900000000001</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0.88508900000000001</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>0.88608900000000002</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0.88708900000000002</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0.88808900000000002</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0.88908900000000002</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.89008900000000002</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0.89108900000000002</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.89208900000000002</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.89308900000000002</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.89409000000000005</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.89509000000000005</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.89609000000000005</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>0.89709000000000005</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>0.89809000000000005</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>0.89908999999999994</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>0.90008999999999995</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>0.90108999999999995</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.90209099999999998</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.90308999999999995</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.90408999999999995</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.90509099999999998</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.90609099999999998</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>0.90709099999999998</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>0.90809099999999998</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>0.90909099999999998</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0.91009099999999998</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0.91109099999999998</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>0.91209099999999999</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>0.91309200000000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.91409200000000002</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.91509200000000002</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0.91609200000000002</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>0.91709200000000002</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.91809200000000002</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.91909200000000002</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.92009200000000002</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.92109300000000005</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>0.92209200000000002</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>0.92309200000000002</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>0.92409300000000005</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>0.92509300000000005</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>0.92609300000000006</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>0.92709299999999994</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>0.92809299999999995</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>0.92909299999999995</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>0.93009299999999995</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>0.93109299999999995</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>0.93209399999999998</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>0.93309399999999998</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>0.93409299999999995</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>0.93509399999999998</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>0.93609399999999998</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>0.93709399999999998</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>0.93809399999999998</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>0.93909399999999998</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>0.94009399999999999</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>0.94109399999999999</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>0.94209399999999999</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>0.94309500000000002</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>0.94409500000000002</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>0.94509500000000002</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>0.94609500000000002</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>0.94709500000000002</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>0.94809500000000002</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>0.94909500000000002</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>0.95009500000000002</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>0.95109500000000002</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.95209600000000005</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>0.95309500000000003</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.95409500000000003</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>0.95509599999999995</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>0.95609599999999995</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>0.95709599999999995</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>0.95809599999999995</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>0.95909599999999995</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.96009599999999995</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.96109599999999995</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>0.96209599999999995</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>0.96309699999999998</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0.96409699999999998</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>0.96509599999999995</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>0.96609699999999998</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>0.96709699999999998</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>0.96809699999999999</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>0.96909699999999999</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0.97009699999999999</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0.97109699999999999</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>0.97209699999999999</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>0.97309699999999999</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>0.97409800000000002</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0.97509800000000002</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>0.97609800000000002</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>0.97709800000000002</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>0.97809800000000002</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>0.97909800000000002</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>0.98009800000000002</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>0.98109800000000003</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>0.98209900000000006</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>0.98309899999999995</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>0.98409800000000003</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>0.98509899999999995</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>0.98609899999999995</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>0.98709899999999995</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>0.98809899999999995</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>0.98909899999999995</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>0.99009899999999995</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>0.99109899999999995</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>0.99209899999999995</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>0.99309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>0.99409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>0.99809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>0.99909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1.0001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure(psi)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$C$2:$C$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>798.75434999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.50884119999978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>803.13924479999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>802.70062200000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.94613080000022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>803.57653440000036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>805.33102559999975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>802.70062200000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>801.82337639999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800.50884119999978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>804.0151572000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>803.57653440000036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>805.33102559999975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>803.57653440000036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>804.0151572000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>803.13924479999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>803.57653440000036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>801.82337639999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>802.26199919999976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>804.45378000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>803.13924479999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>800.07021839999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>801.82337639999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>805.33102559999975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>801.38475360000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>805.33102559999975</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>804.8924027999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>800.50884119999978</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>802.26199919999976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>802.70062200000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>803.57653440000036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>800.07021839999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>797.00119199999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>802.70062200000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>804.8924027999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>800.94613080000022</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>801.38475360000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>800.07021839999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>796.12394640000025</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>797.8784376000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>800.94613080000022</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>796.5625692000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>799.19297279999978</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>798.75434999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>800.07021839999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>798.75434999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>795.24803399999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>797.8784376000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>796.5625692000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>797.43981479999979</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>797.00119199999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>796.12394640000025</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>797.8784376000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>797.8784376000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>799.63159560000008</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>796.12394640000025</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>799.19297279999978</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>797.43981479999979</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>798.75434999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>796.5625692000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>797.43981479999979</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>797.43981479999979</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>795.24803399999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>795.24803399999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>796.12394640000025</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>795.24803399999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>796.12394640000025</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>798.31572720000008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>795.24803399999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>793.93216559999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>795.68532359999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>797.00119199999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>793.05492000000027</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>792.61763039999983</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>794.80941120000011</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>793.93216559999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>791.30176199999983</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>789.98589360000028</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>790.86313919999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>789.54860399999984</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>790.42451640000013</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>789.54860399999984</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>791.30176199999983</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>789.98589360000028</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>789.10998119999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>790.86313919999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>793.05492000000027</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>791.30176199999983</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>791.30176199999983</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>788.67135840000014</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>792.17900759999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>789.54860399999984</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>792.61763039999983</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>790.42451640000013</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>787.79411279999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>790.42451640000013</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>791.74038480000013</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>789.98589360000028</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>789.10998119999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>788.67135840000014</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>792.61763039999983</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>782.53330560000018</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>784.72508640000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>789.10998119999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>782.53330560000018</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>786.04095480000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>788.2327356000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>789.10998119999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>782.97192840000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>786.91820040000016</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>784.28779680000002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>784.72508640000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>786.47957759999986</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>786.91820040000016</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>785.60233200000016</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>785.16370920000031</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>784.28779680000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>786.04095480000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>785.60233200000016</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>785.60233200000016</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>786.91820040000016</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>784.28779680000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>783.84917399999972</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>784.28779680000002</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>787.79411279999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>786.04095480000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>784.28779680000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>784.72508640000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>782.97192840000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>782.97192840000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>782.53330560000018</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>781.21877040000004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>781.21877040000004</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>783.41055120000033</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>782.53330560000018</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>780.34152480000034</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>781.65739319999989</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>779.46427920000019</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>779.02698959999975</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>779.90290200000004</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>780.34152480000034</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>781.65739319999989</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>782.97192840000002</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>781.21877040000004</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>777.2724983999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>782.53330560000018</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>783.41055120000033</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>779.46427920000019</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>779.90290200000004</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>783.41055120000033</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>775.51934040000037</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>779.90290200000004</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>780.78014760000019</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>781.21877040000004</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>778.5883667999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>775.95796319999977</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>778.14974400000006</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>778.14974400000006</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>776.39658600000007</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>780.34152480000034</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>772.45031399999993</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>775.08071760000007</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>777.71112120000021</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>775.95796319999977</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>777.71112120000021</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>776.83387560000006</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>772.88893680000024</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>770.2585332000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>777.71112120000021</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>772.88893680000024</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>774.20347199999992</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>772.45031399999993</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>774.20347199999992</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>775.95796319999977</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>774.64209480000022</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>775.95796319999977</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>772.01169120000009</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>773.32755960000009</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>771.57306840000024</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>773.76484920000007</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>775.08071760000007</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>775.08071760000007</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>774.64209480000022</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>777.71112120000021</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>773.76484920000007</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>772.45031399999993</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>774.64209480000022</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>770.69715599999995</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>771.57306840000024</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>770.2585332000001</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>767.18950680000012</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>767.18950680000012</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>769.81991040000025</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>770.2585332000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>767.18950680000012</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>768.9426648000001</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>768.5040419999998</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>769.38128759999995</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>769.81991040000025</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>768.06675239999981</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>768.9426648000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>765.87363840000012</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>768.9426648000001</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>766.75088400000027</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>766.75088400000027</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>768.5040419999998</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>771.13444559999994</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>767.18950680000012</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>767.18950680000012</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>770.69715599999995</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>770.2585332000001</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>766.75088400000027</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>765.43634880000013</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>766.31226119999997</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>770.69715599999995</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>770.2585332000001</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>768.06675239999981</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>762.8059452</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>767.62812959999997</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>766.31226119999997</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>764.12048040000013</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>762.36732240000015</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>762.36732240000015</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>760.1742084</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>764.99772600000028</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>765.43634880000013</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>764.55910319999998</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>760.61283119999985</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>764.12048040000013</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>764.55910319999998</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>764.55910319999998</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>763.68185759999983</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>762.36732240000015</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>761.4900768</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>760.1742084</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>758.42105040000001</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>757.98242760000016</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>760.61283119999985</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>763.24323479999998</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>760.61283119999985</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>761.9286996000003</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>756.66789240000003</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>760.1742084</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>757.54380479999986</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>758.85967319999986</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>766.75088400000027</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>758.42105040000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>758.42105040000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>759.29829600000016</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>756.22926960000018</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>753.1602432000002</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>753.1602432000002</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>757.54380479999986</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>758.42105040000001</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>757.10651520000033</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>759.73691880000001</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>755.35202400000003</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>757.54380479999986</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>753.1602432000002</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>755.79064679999988</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>755.79064679999988</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>759.29829600000016</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>755.79064679999988</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>754.47611160000019</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>756.66789240000003</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>757.10651520000033</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>757.98242760000016</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>757.54380479999986</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>755.79064679999988</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>756.66789240000003</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>754.47611160000019</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>756.22926960000018</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>756.22926960000018</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>750.96846239999991</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>754.47611160000019</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>750.96846239999991</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>747.46081320000008</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>748.77668160000007</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>750.09121680000021</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>748.33805880000023</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>750.96846239999991</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>752.28299760000004</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>751.84570800000006</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>754.03748879999989</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>750.52983960000006</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>754.91340120000018</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>752.72162039999989</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>750.96846239999991</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>748.33805880000023</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>750.09121680000021</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>752.72162039999989</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>753.59886600000004</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>750.09121680000021</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>750.09121680000021</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>750.52983960000006</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>750.96846239999991</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>750.52983960000006</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>748.77668160000007</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>750.09121680000021</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>747.89943599999992</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>748.33805880000023</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>751.84570800000006</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>750.52983960000006</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>747.46081320000008</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>747.46081320000008</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>746.14627799999994</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>747.89943599999992</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>751.40708520000021</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>749.65259399999991</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>748.33805880000023</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>746.58490080000024</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>742.63862880000011</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>745.26903240000024</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>745.26903240000024</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>747.02219039999977</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>747.02219039999977</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>743.95316399999979</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>744.39178680000009</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>742.63862880000011</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>745.26903240000024</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>743.95316399999979</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>743.95316399999979</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>743.95316399999979</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>744.39178680000009</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>744.39178680000009</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>742.2000059999998</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>743.07725159999995</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>740.88547080000012</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>743.07725159999995</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>744.83040959999994</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>743.51587440000026</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>740.88547080000012</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>741.76138319999995</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>746.58490080000024</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>740.88547080000012</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>739.56960240000012</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>745.26903240000024</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>737.37782159999983</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>739.56960240000012</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>739.56960240000012</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>739.13097959999982</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>736.93919879999999</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>738.69235679999997</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>737.37782159999983</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>740.00822519999997</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>738.69235679999997</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>740.00822519999997</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>740.88547080000012</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>738.69235679999997</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>740.00822519999997</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>738.25506719999998</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>740.00822519999997</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>737.37782159999983</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>735.1860408</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>736.93919879999999</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>739.13097959999982</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>739.56960240000012</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>737.81644440000014</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>741.76138319999995</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>738.25506719999998</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>738.69235679999997</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>739.13097959999982</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>738.25506719999998</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>736.06195319999983</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>736.06195319999983</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>737.81644440000014</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>739.56960240000012</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>736.06195319999983</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>736.06195319999983</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>734.30879519999985</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>737.37782159999983</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>735.1860408</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>736.50057600000014</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>731.67839160000017</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>734.74741800000015</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>736.50057600000014</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>733.4315495999997</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>734.74741800000015</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>734.30879519999985</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>735.62466359999985</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>732.99426000000017</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>730.36252319999971</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>735.62466359999985</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>733.8701724</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>732.11701440000002</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>730.80114600000002</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>733.8701724</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>734.74741800000015</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>732.99426000000017</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>733.8701724</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>731.67839160000017</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>730.36252319999971</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>731.67839160000017</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>730.80114600000002</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>729.48661079999988</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>731.23976879999987</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>731.23976879999987</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>732.55563719999986</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>734.30879519999985</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>726.4175843999999</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>727.29483000000005</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>728.17074239999988</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>730.36252319999971</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>729.92523360000018</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>729.48661079999988</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>728.17074239999988</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>724.22580360000006</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>726.8562072000002</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>725.97896160000005</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>727.29483000000005</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>728.17074239999988</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>728.17074239999988</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>724.22580360000006</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>729.48661079999988</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>729.04798800000003</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>726.8562072000002</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>725.54033879999974</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>727.29483000000005</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>729.48661079999988</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>728.60936519999973</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>725.54033879999974</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>722.90993519999984</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>725.10171600000035</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>727.29483000000005</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>725.10171600000035</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>723.78718079999999</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>725.10171600000035</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>723.78718079999999</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>705.81297840000002</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>722.90993519999984</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>721.59539999999993</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>725.54033879999974</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>723.78718079999999</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>722.90993519999984</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>724.22580360000006</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>724.66442639999991</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>724.66442639999991</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>723.34855799999991</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>722.47131240000022</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>723.78718079999999</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>720.7181544</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>720.7181544</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>722.90993519999984</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>723.34855799999991</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>719.40361920000009</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>721.15677719999985</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>722.47131240000022</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>718.96499640000002</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>720.7181544</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>718.08775079999987</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>718.96499640000002</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>718.96499640000002</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>717.64912799999979</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>715.01872439999988</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>718.96499640000002</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>716.77321559999996</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>716.77321559999996</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>715.45734719999996</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>715.89597000000003</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>716.33459279999988</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>715.89597000000003</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>715.01872439999988</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>716.33459279999988</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>719.40361920000009</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>718.52637359999994</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>715.89597000000003</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>715.45734719999996</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>716.77321559999996</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>715.45734719999996</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>713.2655663999999</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>720.27953159999993</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>714.58010160000026</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>715.01872439999988</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>716.33459279999988</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>717.21050520000017</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>714.58010160000026</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>714.58010160000026</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>714.58010160000026</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>712.38832079999997</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>712.38832079999997</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>711.94969800000013</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>714.14147880000019</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>714.14147880000019</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>715.45734719999996</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>711.07378560000006</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>712.82694359999982</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>719.84090880000008</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>707.12751359999993</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>713.70418919999997</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>711.94969800000013</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>713.2655663999999</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>712.38832079999997</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>712.38832079999997</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>714.58010160000026</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>710.63516279999999</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>710.19653999999991</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>709.31929440000022</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>492.7462872000001</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>711.07378560000006</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>710.63516279999999</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>712.38832079999997</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>711.94969800000013</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>711.94969800000013</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>710.63516279999999</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>709.75791719999984</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>711.07378560000006</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>710.63516279999999</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>711.51107520000005</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>711.07378560000006</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>707.5661364</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>708.44338199999993</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>710.63516279999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage Solenoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'wet run 60 ms with 50 percent d'!$H$2:$H$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0">
+                  <c:v>-3.3027000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7210000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10771600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.138955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18269099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25733699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.360263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47930200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60754900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75059299999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85483399999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95019699999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.014321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0340510000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.92910899999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14158599999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.416823</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55723699999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66575300000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69370399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69436200000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.655559</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60590500000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.57630899999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55427700000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55822300000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59143599999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.65424400000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.74105699999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85023099999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.94592200000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0379970000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.111656</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.165915</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1741349999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.171505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1050800000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.037668</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93967400000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.864371</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.80057599999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.75190800000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.74697599999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.75815600000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.81767599999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88443000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.378635</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.5177999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.195516</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.375718</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.53915100000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.70093899999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.818662</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.91665600000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.99163100000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0166219999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0245139999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.97321599999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.91862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.833789</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.76900800000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.71310600000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.67496</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.67561800000000005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.69074500000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.75289499999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83082900000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.931454</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0304340000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1050800000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.165915</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1974830000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1922219999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.155721</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.08239</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0107029999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.898899</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.96166399999999996</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.5296000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.18334900000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.21984899999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.26194099999999998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.295153</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.30896400000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.35664600000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.414192</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.52270899999999998</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.62629199999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.75190800000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.86733000000000005</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.96203499999999997</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.043258</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0892949999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1014619999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.0800879999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.021226</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.95249899999999998</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.86897400000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.80781099999999995</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.75026400000000004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.71606499999999995</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.72297100000000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.74270099999999994</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.82030700000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.89659699999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.003798</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.0853489999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.1511169999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.200771</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.101425</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.28002700000000003</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.65588800000000003</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.77920199999999995</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.83904999999999996</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.85187500000000005</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.82589699999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.79136899999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.72165500000000005</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.67002799999999996</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.62990999999999997</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.60656200000000005</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.62530600000000003</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.65687399999999996</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.74072800000000005</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.82458100000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.93868799999999997</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.0284610000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.100476</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.175122</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.188933</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.183014</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.127769</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.059042</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.96598099999999998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.87752399999999997</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.81701800000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.76571999999999996</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.73645300000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.73776799999999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.26880300000000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.16888</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.24780099999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.34678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.44543199999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.57203400000000004</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.68383899999999997</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.81701800000000002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.91895800000000005</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.0067569999999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.086665</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.1149450000000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.122179</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.0800879999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.0205679999999999</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.942963</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.86009599999999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.80057599999999995</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.74829100000000004</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.72658800000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.73448000000000002</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.77788599999999997</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.85220399999999996</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.93901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.043258</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.117904</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.1856450000000001</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.2310239999999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.23234</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.2185280000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1.139608</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-5.4039999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-0.66209300000000004</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.340862</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.54408299999999998</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.60689099999999996</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.64668000000000003</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.63319800000000004</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.59932799999999997</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.57499400000000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.55855200000000005</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.55756499999999998</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.59636800000000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.65687399999999996</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.74500299999999997</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.84562700000000002</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.96532399999999996</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.047204</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.125796</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.180383</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.1899200000000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.184987</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.1231660000000001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.0587139999999999</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.95907600000000004</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.87818200000000002</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.81833299999999998</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.764733</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.75684099999999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.768679</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.82589699999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.9012</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.99722100000000002</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.084363</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.173E-3</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-5.5386999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.15967200000000001</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.370786</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.57729600000000003</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.736124</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.85877999999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.94362000000000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.97880599999999995</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.99787899999999996</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.94954000000000005</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.90448899999999999</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.82096400000000003</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.75749900000000003</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.71244799999999997</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.66937000000000002</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.67035699999999998</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.69107300000000005</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.75223700000000004</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.83082900000000004</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.93671499999999996</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.036681</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.1109990000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.174464</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.2103079999999999</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.2063619999999999</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.171505</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.104422</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.033393</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.931782</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.85384800000000005</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.78742299999999998</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-0.170152</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.35829</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.41254800000000003</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.44378800000000002</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.47404099999999999</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.51711799999999997</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.57137700000000002</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.64865300000000004</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.74993500000000002</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.85943800000000004</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.97913499999999998</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.0636460000000001</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.1386210000000001</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.1879470000000001</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.196825</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.17578</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.1146160000000001</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.048848</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.95513000000000003</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.88443000000000005</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.82129300000000005</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.77953099999999997</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.77722899999999995</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.78840900000000003</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.86338400000000004</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.93474199999999996</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.0343800000000001</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.1244810000000001</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.189262</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.2468090000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.2602910000000001</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.239903</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-4.1904999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.28298600000000002</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.46253100000000003</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.59472400000000003</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.66081999999999996</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.66969900000000004</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.65391500000000002</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.60163</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.57071899999999998</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.48851</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.52468199999999998</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.56381300000000001</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.60195900000000002</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.69896599999999998</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.78544999999999998</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.90251599999999998</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>1.0014959999999999</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1.0794299999999999</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1.1478280000000001</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1.182356</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1.184658</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1.1432249999999999</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1.0794299999999999</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.99722100000000002</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0.90514700000000003</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0.83674800000000005</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0.78808</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.75190800000000002</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.764733</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.79794600000000004</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.86601499999999998</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1.173E-3</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>-0.107673</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.282329</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.39840799999999998</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.55822300000000002</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0.69929399999999997</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.851217</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0.96137799999999995</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1.0504929999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1.1313869999999999</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1.1645989999999999</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>1.17282</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1.1294139999999999</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>1.0774570000000001</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>1.0008379999999999</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.88771800000000001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.86272700000000002</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.80682399999999999</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.77459800000000001</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.77986</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.816689</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.88344299999999998</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.96367999999999998</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>1.0695650000000001</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1.1412519999999999</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1.2083349999999999</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1.2530559999999999</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.25207</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.241547</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1.166901</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.0991610000000001</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.99064399999999997</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>-0.634799</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0.34118999999999999</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.45365299999999997</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0.47864499999999999</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>0.49015399999999998</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>0.49640200000000001</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>0.49804599999999999</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>0.50856900000000005</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>0.55000199999999999</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0.61379700000000004</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0.70981700000000003</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0.80846799999999996</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>0.933755</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>1.0225409999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>1.104422</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>1.165257</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>1.17841</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>1.179068</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>1.1152740000000001</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>1.023199</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0.97157199999999999</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0.89166400000000001</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.831816</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.77591299999999996</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.76506200000000002</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.77624199999999999</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.82655400000000001</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.90974999999999995</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>1.0014959999999999</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>1.0991610000000001</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>1.173149</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>1.2208300000000001</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>-4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>7.7489999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.38952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.57598000000000005</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.75585400000000003</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0.89067799999999997</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.95315700000000003</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.98932900000000001</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.95315700000000003</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.91961499999999996</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0.84858699999999998</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.78577900000000001</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.74171399999999998</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.70258299999999996</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.70126699999999997</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.72461500000000001</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.783806</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0.86535700000000004</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>0.96598099999999998</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>1.0682499999999999</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>1.1419090000000001</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>1.2080059999999999</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>1.2468090000000001</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>1.2428619999999999</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>1.1955100000000001</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>1.1484859999999999</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>1.0800879999999999</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0.97617500000000001</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0.894953</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0.831816</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0.78446300000000002</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.77624199999999999</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>-0.32141700000000001</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0.22412399999999999</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.30041499999999999</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0.37999300000000003</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.47831600000000002</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.57762500000000006</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.69995200000000002</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.816689</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.93901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>1.030105</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>1.1109990000000001</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>1.157694</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>1.169532</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>1.1521030000000001</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>1.093899</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>1.033064</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.93737300000000001</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.87259200000000003</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0.81635999999999997</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.77624199999999999</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.77163899999999996</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0.79005300000000001</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0.86667300000000003</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>0.93835900000000005</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>1.0422720000000001</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>1.124152</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>1.1935370000000001</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>1.2586470000000001</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>1.2856110000000001</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>1.269827</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>1.2178709999999999</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>-0.81006999999999996</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0.22806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.45036399999999999</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0.54802899999999999</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.59702599999999995</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0.61017900000000003</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.57828199999999996</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.559867</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.53915100000000005</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.52961400000000003</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0.56118299999999999</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0.59932799999999997</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.69797900000000002</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0.78906699999999996</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.91402499999999998</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>1.009717</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>1.093899</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>1.1724909999999999</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>1.200771</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>1.204388</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>1.169532</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>1.1050800000000001</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>1.021226</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0.92915199999999998</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.86470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0.81142800000000004</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0.77722899999999995</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0.78676500000000005</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.82228000000000001</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0.89396600000000004</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.97222900000000001</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>1.074498</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>-0.296097</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.18532199999999999</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.38525500000000001</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.59406599999999998</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.75947200000000004</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.88607400000000003</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>0.996892</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>1.04556</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1.0656190000000001</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1.0465469999999999</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>0.99524800000000002</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.92915199999999998</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.84891499999999998</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.79334199999999999</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.749278</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.72165500000000005</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>0.73448000000000002</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>0.770652</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>0.84957300000000002</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0.92882299999999995</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>1.038654</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1.1211930000000001</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>1.1922219999999999</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>1.244507</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>1.2527280000000001</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>1.244178</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>1.173478</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>1.106395</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>1.005771</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.92257500000000003</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.85417699999999996</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>-0.77356899999999995</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.167236</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>0.25963900000000001</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.30929299999999998</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>0.36092099999999999</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>0.39840799999999998</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>0.46055800000000002</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>0.53224499999999997</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>0.64273400000000003</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.75421000000000005</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.88114099999999995</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>0.98176600000000003</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1.0698939999999999</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>1.1409229999999999</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1.1619679999999999</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>1.1682159999999999</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>1.1146160000000001</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>1.059042</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>0.97222900000000001</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0.89528099999999999</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0.83510399999999996</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>0.78051700000000002</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>0.76900800000000002</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>0.78446300000000002</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0.83543299999999998</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>0.91106600000000004</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>1.0005090000000001</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1.108039</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1.179397</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>1.247795</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1.2823230000000001</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>1.267525</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>8.4400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>1.8599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>5.1500000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>-1.4300000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="52537984"/>
+        <c:axId val="52617600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52537984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52617600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52617600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52537984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6676,7 +15800,45 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8674223" cy="6297597"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -6958,7 +16120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6968,8 +16130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1000"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="3" sqref="A1:A1048576 C1:C1048576 H1 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
